--- a/data/Demo Project/Demo Project_요구사항추적표.xlsx
+++ b/data/Demo Project/Demo Project_요구사항추적표.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>non-functional</t>
+          <t>functional</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>non-functional</t>
+          <t>functional</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>non-functional</t>
+          <t>constraint</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>non-functional</t>
+          <t>constraint</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>non-functional</t>
+          <t>constraint</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>non-functional</t>
+          <t>constraint</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1889,316 +1889,6 @@
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>web</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>SFR-023</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>non-functional</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>RFP</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>SFR-023-001</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr"/>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>설계_SFR-023</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>프로그램_023</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>단위테스트_023</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>통합테스트_023</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>web</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>SFR-024</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>constraint</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>RFP</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>SFR-024-001</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr"/>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>설계_SFR-024</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>프로그램_024</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>단위테스트_024</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>통합테스트_024</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>web</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>SFR-025</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>constraint</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>RFP</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>SFR-025-001</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr"/>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>설계_SFR-025</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>프로그램_025</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>단위테스트_025</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>통합테스트_025</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>web</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>SFR-026</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>constraint</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>RFP</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>SFR-026-001</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr"/>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>설계_SFR-026</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>프로그램_026</t>
-        </is>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
-        <is>
-          <t>단위테스트_026</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="inlineStr">
-        <is>
-          <t>통합테스트_026</t>
-        </is>
-      </c>
-      <c r="N27" s="2" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>web</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>SFR-027</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>constraint</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>RFP</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>SFR-027-001</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="inlineStr"/>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>설계_SFR-027</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>프로그램_027</t>
-        </is>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>단위테스트_027</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="inlineStr">
-        <is>
-          <t>통합테스트_027</t>
-        </is>
-      </c>
-      <c r="N28" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/Demo Project/Demo Project_요구사항추적표.xlsx
+++ b/data/Demo Project/Demo Project_요구사항추적표.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -976,7 +976,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>functional</t>
+          <t>non-functional</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>functional</t>
+          <t>non-functional</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>functional</t>
+          <t>non-functional</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>functional</t>
+          <t>non-functional</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>functional</t>
+          <t>constraint</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1517,378 +1517,6 @@
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>web</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>SFR-017</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>non-functional</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>RFP</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>SFR-017-001</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr"/>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>설계_SFR-017</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>프로그램_017</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>단위테스트_017</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>통합테스트_017</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>web</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>SFR-018</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>non-functional</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>RFP</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>SFR-018-001</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>설계_SFR-018</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>프로그램_018</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>단위테스트_018</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>통합테스트_018</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>web</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>SFR-019</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>constraint</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>RFP</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>SFR-019-001</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr"/>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>설계_SFR-019</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>프로그램_019</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>단위테스트_019</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>통합테스트_019</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>web</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>SFR-020</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>constraint</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>RFP</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>SFR-020-001</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr"/>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>설계_SFR-020</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>프로그램_020</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>단위테스트_020</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>통합테스트_020</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>web</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>SFR-021</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>constraint</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>RFP</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>SFR-021-001</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr"/>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>설계_SFR-021</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>프로그램_021</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>단위테스트_021</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>통합테스트_021</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>web</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>SFR-022</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>constraint</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>RFP</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>SFR-022-001</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr"/>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>설계_SFR-022</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>프로그램_022</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>단위테스트_022</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>통합테스트_022</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
